--- a/Code/Results/Cases/Case_3_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.478575546805303</v>
+        <v>0.9118026264606556</v>
       </c>
       <c r="C2">
-        <v>0.5840826289800134</v>
+        <v>0.1825483712090374</v>
       </c>
       <c r="D2">
-        <v>0.1724271800528641</v>
+        <v>0.2640623037707428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7073868975399336</v>
+        <v>1.277823576529613</v>
       </c>
       <c r="G2">
-        <v>0.00079574173884845</v>
+        <v>0.002439361267966054</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1322648850311694</v>
+        <v>0.2658929057621009</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7819904615099489</v>
+        <v>0.4265380062410316</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.504451996171269</v>
+        <v>2.812373875057034</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154578874777428</v>
+        <v>0.8118824727546325</v>
       </c>
       <c r="C3">
-        <v>0.5131507028559383</v>
+        <v>0.1594099981672343</v>
       </c>
       <c r="D3">
-        <v>0.1572326757229661</v>
+        <v>0.2610606059362368</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6761206729791311</v>
+        <v>1.283391422492976</v>
       </c>
       <c r="G3">
-        <v>0.0008004161581935257</v>
+        <v>0.002442404532726988</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1271737668394337</v>
+        <v>0.2670119057478786</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.680820006847199</v>
+        <v>0.3975929767683013</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.455628389245447</v>
+        <v>2.833792051614495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956077053282314</v>
+        <v>0.7504831558867409</v>
       </c>
       <c r="C4">
-        <v>0.469625530105759</v>
+        <v>0.1451453340692126</v>
       </c>
       <c r="D4">
-        <v>0.1480406913497632</v>
+        <v>0.2593048297493112</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6588582290291924</v>
+        <v>1.287724246879556</v>
       </c>
       <c r="G4">
-        <v>0.0008033764287405654</v>
+        <v>0.002444372487571464</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1243502058136059</v>
+        <v>0.2678553944594455</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6190034503369475</v>
+        <v>0.379910746431058</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.430726411728159</v>
+        <v>2.849204723590987</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.875260187377734</v>
+        <v>0.7254517000858129</v>
       </c>
       <c r="C5">
-        <v>0.45188910221637</v>
+        <v>0.1393182331844685</v>
       </c>
       <c r="D5">
-        <v>0.1443269979725983</v>
+        <v>0.2586113639064678</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6522823377139986</v>
+        <v>1.289719476487335</v>
       </c>
       <c r="G5">
-        <v>0.0008046059475764034</v>
+        <v>0.002445199510626944</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1232714578793974</v>
+        <v>0.2682384234942603</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5938758743880683</v>
+        <v>0.3727281199057515</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.421781305055973</v>
+        <v>2.856053146210868</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.861844121037706</v>
+        <v>0.721294636666812</v>
       </c>
       <c r="C6">
-        <v>0.4489438290459589</v>
+        <v>0.1383498042830524</v>
       </c>
       <c r="D6">
-        <v>0.1437122124988974</v>
+        <v>0.2584975471957307</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6512173327436201</v>
+        <v>1.290064639410971</v>
       </c>
       <c r="G6">
-        <v>0.0008048115231266879</v>
+        <v>0.002445338353310217</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1230965563217268</v>
+        <v>0.2683043978942266</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5897069138181621</v>
+        <v>0.3715368516618298</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.420366534897425</v>
+        <v>2.85722457238252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954986872415219</v>
+        <v>0.7501456146275984</v>
       </c>
       <c r="C7">
-        <v>0.4693863368433142</v>
+        <v>0.1450668045085592</v>
       </c>
       <c r="D7">
-        <v>0.1479904802969685</v>
+        <v>0.259295388131406</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6587677227989843</v>
+        <v>1.287750226132054</v>
       </c>
       <c r="G7">
-        <v>0.0008033929159338094</v>
+        <v>0.002444383539439702</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1243353717550306</v>
+        <v>0.2678604010389876</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6186643317206801</v>
+        <v>0.3798137853051173</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.430600999890913</v>
+        <v>2.84929478698345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366749783725709</v>
+        <v>0.8773608630789909</v>
       </c>
       <c r="C8">
-        <v>0.5596155877606463</v>
+        <v>0.1745824199531683</v>
       </c>
       <c r="D8">
-        <v>0.1671580444196792</v>
+        <v>0.2630092503694499</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6961873715879108</v>
+        <v>1.279553456031152</v>
       </c>
       <c r="G8">
-        <v>0.0007973350842411067</v>
+        <v>0.002440390005604114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1304441203598188</v>
+        <v>0.2662462526084894</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7470360507758045</v>
+        <v>0.4165392584951491</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.486518438840761</v>
+        <v>2.819288743898426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179383168780362</v>
+        <v>1.126404091442225</v>
       </c>
       <c r="C9">
-        <v>0.7370952663055448</v>
+        <v>0.2319927744987069</v>
       </c>
       <c r="D9">
-        <v>0.2059571187520248</v>
+        <v>0.2709817036192419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7862653312830901</v>
+        <v>1.27074777120886</v>
       </c>
       <c r="G9">
-        <v>0.0007861463061145396</v>
+        <v>0.002433343742510701</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.145023716566655</v>
+        <v>0.2643236935694873</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.001809858318957</v>
+        <v>0.4892610744984154</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.639993519989162</v>
+        <v>2.778445948186118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.78222903210775</v>
+        <v>1.309075033723786</v>
       </c>
       <c r="C10">
-        <v>0.8683208512985061</v>
+        <v>0.2738731922145234</v>
       </c>
       <c r="D10">
-        <v>0.2353838883239803</v>
+        <v>0.27725638636268</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8646315153627739</v>
+        <v>1.268731468930682</v>
       </c>
       <c r="G10">
-        <v>0.0007783099926102767</v>
+        <v>0.002428640558682088</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1576210923617793</v>
+        <v>0.2636714649133438</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.191816248994741</v>
+        <v>0.5431083509256922</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.784758084176474</v>
+        <v>2.759486603809592</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.058389534979881</v>
+        <v>1.392103937271202</v>
       </c>
       <c r="C11">
-        <v>0.9283230948594223</v>
+        <v>0.2928584075174001</v>
       </c>
       <c r="D11">
-        <v>0.2490151428588376</v>
+        <v>0.2802009335910469</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9034136866632139</v>
+        <v>1.268786108348294</v>
       </c>
       <c r="G11">
-        <v>0.0007748196131770077</v>
+        <v>0.002426602780314649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1638342466646776</v>
+        <v>0.263540430002621</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.279105781692564</v>
+        <v>0.5676940190936222</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.858846240681089</v>
+        <v>2.753276781755119</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.163299125139815</v>
+        <v>1.423533879865545</v>
       </c>
       <c r="C12">
-        <v>0.9510996554880364</v>
+        <v>0.3000377840575084</v>
       </c>
       <c r="D12">
-        <v>0.2542161220580397</v>
+        <v>0.2813288560656986</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9185941683566625</v>
+        <v>1.268946919616312</v>
       </c>
       <c r="G12">
-        <v>0.0007735078088947077</v>
+        <v>0.00242584567575551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1662630260821985</v>
+        <v>0.2635146766623109</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.31230429404377</v>
+        <v>0.577016685105292</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.888202384180858</v>
+        <v>2.751273823175751</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.140689167470896</v>
+        <v>1.416765403730267</v>
       </c>
       <c r="C13">
-        <v>0.9461916852716854</v>
+        <v>0.2984920234803212</v>
       </c>
       <c r="D13">
-        <v>0.2530941925968477</v>
+        <v>0.2810853659071171</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9153020459381764</v>
+        <v>1.268906048294298</v>
       </c>
       <c r="G13">
-        <v>0.0007737899008677192</v>
+        <v>0.002426008085481041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1657364539901849</v>
+        <v>0.2635191609237566</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.30514764869541</v>
+        <v>0.5750083273854187</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.88182020850212</v>
+        <v>2.751689672742344</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.067013479192269</v>
+        <v>1.394689931880237</v>
       </c>
       <c r="C14">
-        <v>0.93019576790266</v>
+        <v>0.2934492598795941</v>
       </c>
       <c r="D14">
-        <v>0.2494422230055022</v>
+        <v>0.2802934706405438</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9046524179790651</v>
+        <v>1.268796528063518</v>
       </c>
       <c r="G14">
-        <v>0.000774711495935552</v>
+        <v>0.002426540201544759</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1640325009707908</v>
+        <v>0.2635378326823528</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.28183403349297</v>
+        <v>0.5684607499008223</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.861234620193471</v>
+        <v>2.753105003870473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.021930217941247</v>
+        <v>1.38116655565193</v>
       </c>
       <c r="C15">
-        <v>0.9204053102547221</v>
+        <v>0.2903591199290076</v>
       </c>
       <c r="D15">
-        <v>0.2472105021189464</v>
+        <v>0.2798100877738676</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8981949826625453</v>
+        <v>1.268747702473476</v>
       </c>
       <c r="G15">
-        <v>0.0007752772683611372</v>
+        <v>0.002426868031593211</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1629988825987994</v>
+        <v>0.2635523791351062</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.267573159248442</v>
+        <v>0.5644518004147301</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.848798352084003</v>
+        <v>2.754017367483328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.764224754395002</v>
+        <v>1.303647392708285</v>
       </c>
       <c r="C16">
-        <v>0.8644066482174253</v>
+        <v>0.272631096390711</v>
       </c>
       <c r="D16">
-        <v>0.2344983078745599</v>
+        <v>0.2770657608175924</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8621637309915826</v>
+        <v>1.268747485966372</v>
       </c>
       <c r="G16">
-        <v>0.0007785395295812699</v>
+        <v>0.002428775773135934</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1572253100497676</v>
+        <v>0.2636833657586379</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.186130621529557</v>
+        <v>0.5415034041367477</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.780091677929533</v>
+        <v>2.759941135843206</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.606662367983063</v>
+        <v>1.256073234429437</v>
       </c>
       <c r="C17">
-        <v>0.8301393475517784</v>
+        <v>0.261738261370823</v>
       </c>
       <c r="D17">
-        <v>0.2267651854109829</v>
+        <v>0.2754052415799606</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8408923289634629</v>
+        <v>1.268996532972068</v>
       </c>
       <c r="G17">
-        <v>0.0007805593459959491</v>
+        <v>0.002429972114885802</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1538115279030094</v>
+        <v>0.2638061844237001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.136401514547828</v>
+        <v>0.5274481598037681</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.740131169724805</v>
+        <v>2.764194617111059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.516213937834266</v>
+        <v>1.228703421188015</v>
       </c>
       <c r="C18">
-        <v>0.8104578981289876</v>
+        <v>0.2554667626954199</v>
       </c>
       <c r="D18">
-        <v>0.222340093864176</v>
+        <v>0.2744586460452751</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8289496324258181</v>
+        <v>1.269231232887449</v>
       </c>
       <c r="G18">
-        <v>0.0007817281433393317</v>
+        <v>0.0024306697977826</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1518930032542443</v>
+        <v>0.2638924172143007</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.107877734589074</v>
+        <v>0.5193724739441734</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.717914437749812</v>
+        <v>2.766868328740912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.485618443692886</v>
+        <v>1.219435412980715</v>
       </c>
       <c r="C19">
-        <v>0.8037986252754479</v>
+        <v>0.2533422825132732</v>
       </c>
       <c r="D19">
-        <v>0.2208456352610426</v>
+        <v>0.2741396058496974</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8249549190818186</v>
+        <v>1.269326394465523</v>
       </c>
       <c r="G19">
-        <v>0.0007821251118533334</v>
+        <v>0.002430907668676546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1512509590116906</v>
+        <v>0.2639242905418868</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.098233046660347</v>
+        <v>0.5166396600660619</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.710520658866244</v>
+        <v>2.76781258716349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.62341640672787</v>
+        <v>1.261138258810377</v>
       </c>
       <c r="C20">
-        <v>0.8337841665582175</v>
+        <v>0.2628984694943881</v>
       </c>
       <c r="D20">
-        <v>0.2275860029212993</v>
+        <v>0.2755811284527283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8431261727493649</v>
+        <v>1.268960553610242</v>
       </c>
       <c r="G20">
-        <v>0.0007803436086592725</v>
+        <v>0.002429843771367587</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1541702282087272</v>
+        <v>0.2637914962652061</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.141686931587429</v>
+        <v>0.5289434856022552</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.744304788098816</v>
+        <v>2.763718300667989</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.088644280786468</v>
+        <v>1.401174350675717</v>
       </c>
       <c r="C21">
-        <v>0.9348925720292698</v>
+        <v>0.2949307136918833</v>
       </c>
       <c r="D21">
-        <v>0.2505138005661678</v>
+        <v>0.280525720370278</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9077666817941576</v>
+        <v>1.268824891056255</v>
       </c>
       <c r="G21">
-        <v>0.0007744405381634085</v>
+        <v>0.002426383511507818</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1645308754310832</v>
+        <v>0.2635317002469009</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.288677726892203</v>
+        <v>0.5703835929322736</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.867244831540802</v>
+        <v>2.752679816399336</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.39467228872536</v>
+        <v>1.492629532723072</v>
       </c>
       <c r="C22">
-        <v>1.001299193971988</v>
+        <v>0.3158076936605028</v>
       </c>
       <c r="D22">
-        <v>0.2657285098383966</v>
+        <v>0.2838323722778142</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9529185640888471</v>
+        <v>1.269553127110854</v>
       </c>
       <c r="G22">
-        <v>0.0007706399977955214</v>
+        <v>0.002424206854580926</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1717485815633069</v>
+        <v>0.2635010426296844</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.385594319663383</v>
+        <v>0.5975404114990113</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.95523536030916</v>
+        <v>2.74749784535652</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.231138490651176</v>
+        <v>1.4438247159257</v>
       </c>
       <c r="C23">
-        <v>0.9658230082304158</v>
+        <v>0.3046706776428323</v>
       </c>
       <c r="D23">
-        <v>0.2575857045103618</v>
+        <v>0.2820607064616212</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9285387704489096</v>
+        <v>1.269089586328761</v>
       </c>
       <c r="G23">
-        <v>0.0007726634314911047</v>
+        <v>0.002425360839019793</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.167853176455921</v>
+        <v>0.263504659833167</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.333782957327713</v>
+        <v>0.5830397207279958</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.907532765862186</v>
+        <v>2.750077171821687</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.61584148556949</v>
+        <v>1.258848419734704</v>
       </c>
       <c r="C24">
-        <v>0.8321362846466513</v>
+        <v>0.2623739676064929</v>
       </c>
       <c r="D24">
-        <v>0.2272148468802158</v>
+        <v>0.2755015848895965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8421153628223124</v>
+        <v>1.268976534825796</v>
       </c>
       <c r="G24">
-        <v>0.0007804411198228816</v>
+        <v>0.002429901764605095</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1540079229183604</v>
+        <v>0.2637980881218382</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.139297190075723</v>
+        <v>0.5282674336401669</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.742415545735781</v>
+        <v>2.763932932187885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.958730061201152</v>
+        <v>1.059081227919478</v>
       </c>
       <c r="C25">
-        <v>0.6889752423894322</v>
+        <v>0.2165133599256706</v>
       </c>
       <c r="D25">
-        <v>0.1953132176279126</v>
+        <v>0.2687514385570751</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7599110688782673</v>
+        <v>1.272349520224026</v>
       </c>
       <c r="G25">
-        <v>0.0007891028976087359</v>
+        <v>0.002435166405118721</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1407715052923564</v>
+        <v>0.264710475666476</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9324658776179362</v>
+        <v>0.4695136739142214</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.593260681913932</v>
+        <v>2.787560308893461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9118026264606556</v>
+        <v>2.478575546805359</v>
       </c>
       <c r="C2">
-        <v>0.1825483712090374</v>
+        <v>0.5840826289798713</v>
       </c>
       <c r="D2">
-        <v>0.2640623037707428</v>
+        <v>0.1724271800528214</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.277823576529613</v>
+        <v>0.7073868975399407</v>
       </c>
       <c r="G2">
-        <v>0.002439361267966054</v>
+        <v>0.0007957417388482982</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2658929057621009</v>
+        <v>0.1322648850311978</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4265380062410316</v>
+        <v>0.781990461509956</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.812373875057034</v>
+        <v>1.504451996171269</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8118824727546325</v>
+        <v>2.154578874777371</v>
       </c>
       <c r="C3">
-        <v>0.1594099981672343</v>
+        <v>0.5131507028558246</v>
       </c>
       <c r="D3">
-        <v>0.2610606059362368</v>
+        <v>0.1572326757229376</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.283391422492976</v>
+        <v>0.676120672979124</v>
       </c>
       <c r="G3">
-        <v>0.002442404532726988</v>
+        <v>0.0008004161581940738</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2670119057478786</v>
+        <v>0.1271737668395474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3975929767683013</v>
+        <v>0.680820006847199</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.833792051614495</v>
+        <v>1.455628389245391</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7504831558867409</v>
+        <v>1.956077053282371</v>
       </c>
       <c r="C4">
-        <v>0.1451453340692126</v>
+        <v>0.4696255301059011</v>
       </c>
       <c r="D4">
-        <v>0.2593048297493112</v>
+        <v>0.1480406913497774</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.287724246879556</v>
+        <v>0.6588582290292067</v>
       </c>
       <c r="G4">
-        <v>0.002444372487571464</v>
+        <v>0.0008033764287199228</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2678553944594455</v>
+        <v>0.1243502058136059</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.379910746431058</v>
+        <v>0.6190034503369404</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.849204723590987</v>
+        <v>1.430726411728131</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7254517000858129</v>
+        <v>1.875260187377677</v>
       </c>
       <c r="C5">
-        <v>0.1393182331844685</v>
+        <v>0.45188910221637</v>
       </c>
       <c r="D5">
-        <v>0.2586113639064678</v>
+        <v>0.1443269979728115</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.289719476487335</v>
+        <v>0.6522823377139915</v>
       </c>
       <c r="G5">
-        <v>0.002445199510626944</v>
+        <v>0.0008046059476532309</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2682384234942603</v>
+        <v>0.1232714578794543</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3727281199057515</v>
+        <v>0.5938758743880754</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.856053146210868</v>
+        <v>1.421781305055944</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.721294636666812</v>
+        <v>1.861844121037706</v>
       </c>
       <c r="C6">
-        <v>0.1383498042830524</v>
+        <v>0.4489438290457315</v>
       </c>
       <c r="D6">
-        <v>0.2584975471957307</v>
+        <v>0.1437122124987837</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.290064639410971</v>
+        <v>0.6512173327436059</v>
       </c>
       <c r="G6">
-        <v>0.002445338353310217</v>
+        <v>0.0008048115231464061</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2683043978942266</v>
+        <v>0.1230965563218689</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3715368516618298</v>
+        <v>0.5897069138181621</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.85722457238252</v>
+        <v>1.420366534897425</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7501456146275984</v>
+        <v>1.954986872414935</v>
       </c>
       <c r="C7">
-        <v>0.1450668045085592</v>
+        <v>0.4693863368430016</v>
       </c>
       <c r="D7">
-        <v>0.259295388131406</v>
+        <v>0.1479904802970253</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.287750226132054</v>
+        <v>0.6587677227989701</v>
       </c>
       <c r="G7">
-        <v>0.002444383539439702</v>
+        <v>0.0008033929159145581</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2678604010389876</v>
+        <v>0.1243353717550448</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3798137853051173</v>
+        <v>0.6186643317206872</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.84929478698345</v>
+        <v>1.430600999890885</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8773608630789909</v>
+        <v>2.366749783725595</v>
       </c>
       <c r="C8">
-        <v>0.1745824199531683</v>
+        <v>0.5596155877602769</v>
       </c>
       <c r="D8">
-        <v>0.2630092503694499</v>
+        <v>0.1671580444195087</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.279553456031152</v>
+        <v>0.6961873715879108</v>
       </c>
       <c r="G8">
-        <v>0.002440390005604114</v>
+        <v>0.0007973350841586725</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2662462526084894</v>
+        <v>0.1304441203598543</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4165392584951491</v>
+        <v>0.7470360507757903</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.819288743898426</v>
+        <v>1.486518438840875</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.126404091442225</v>
+        <v>3.179383168780305</v>
       </c>
       <c r="C9">
-        <v>0.2319927744987069</v>
+        <v>0.7370952663059995</v>
       </c>
       <c r="D9">
-        <v>0.2709817036192419</v>
+        <v>0.2059571187520248</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.27074777120886</v>
+        <v>0.7862653312830759</v>
       </c>
       <c r="G9">
-        <v>0.002433343742510701</v>
+        <v>0.0007861463061147322</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2643236935694873</v>
+        <v>0.1450237165666906</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4892610744984154</v>
+        <v>1.001809858318957</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.778445948186118</v>
+        <v>1.639993519989105</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.309075033723786</v>
+        <v>3.782229032107637</v>
       </c>
       <c r="C10">
-        <v>0.2738731922145234</v>
+        <v>0.8683208512982503</v>
       </c>
       <c r="D10">
-        <v>0.27725638636268</v>
+        <v>0.2353838883237387</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.268731468930682</v>
+        <v>0.8646315153627739</v>
       </c>
       <c r="G10">
-        <v>0.002428640558682088</v>
+        <v>0.0007783099926391067</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2636714649133438</v>
+        <v>0.1576210923617722</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5431083509256922</v>
+        <v>1.191816248994726</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.759486603809592</v>
+        <v>1.784758084176559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.392103937271202</v>
+        <v>4.058389534979824</v>
       </c>
       <c r="C11">
-        <v>0.2928584075174001</v>
+        <v>0.9283230948594223</v>
       </c>
       <c r="D11">
-        <v>0.2802009335910469</v>
+        <v>0.2490151428589655</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.268786108348294</v>
+        <v>0.9034136866632139</v>
       </c>
       <c r="G11">
-        <v>0.002426602780314649</v>
+        <v>0.0007748196131774199</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.263540430002621</v>
+        <v>0.163834246664706</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5676940190936222</v>
+        <v>1.27910578169255</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.753276781755119</v>
+        <v>1.858846240681089</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.423533879865545</v>
+        <v>4.163299125139872</v>
       </c>
       <c r="C12">
-        <v>0.3000377840575084</v>
+        <v>0.9510996554880649</v>
       </c>
       <c r="D12">
-        <v>0.2813288560656986</v>
+        <v>0.254216122058196</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.268946919616312</v>
+        <v>0.9185941683566625</v>
       </c>
       <c r="G12">
-        <v>0.00242584567575551</v>
+        <v>0.0007735078088663244</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2635146766623109</v>
+        <v>0.1662630260822979</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.577016685105292</v>
+        <v>1.312304294043784</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.751273823175751</v>
+        <v>1.888202384180829</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.416765403730267</v>
+        <v>4.140689167470669</v>
       </c>
       <c r="C13">
-        <v>0.2984920234803212</v>
+        <v>0.9461916852716854</v>
       </c>
       <c r="D13">
-        <v>0.2810853659071171</v>
+        <v>0.2530941925968477</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.268906048294298</v>
+        <v>0.9153020459381622</v>
       </c>
       <c r="G13">
-        <v>0.002426008085481041</v>
+        <v>0.0007737899008692062</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2635191609237566</v>
+        <v>0.1657364539901991</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5750083273854187</v>
+        <v>1.30514764869541</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.751689672742344</v>
+        <v>1.881820208502177</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.394689931880237</v>
+        <v>4.067013479192212</v>
       </c>
       <c r="C14">
-        <v>0.2934492598795941</v>
+        <v>0.9301957679026884</v>
       </c>
       <c r="D14">
-        <v>0.2802934706405438</v>
+        <v>0.249442223005687</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.268796528063518</v>
+        <v>0.9046524179790651</v>
       </c>
       <c r="G14">
-        <v>0.002426540201544759</v>
+        <v>0.0007747114959636922</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2635378326823528</v>
+        <v>0.1640325009706842</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5684607499008223</v>
+        <v>1.281834033492984</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.753105003870473</v>
+        <v>1.8612346201935</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.38116655565193</v>
+        <v>4.021930217941303</v>
       </c>
       <c r="C15">
-        <v>0.2903591199290076</v>
+        <v>0.920405310254921</v>
       </c>
       <c r="D15">
-        <v>0.2798100877738676</v>
+        <v>0.2472105021187474</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.268747702473476</v>
+        <v>0.8981949826625453</v>
       </c>
       <c r="G15">
-        <v>0.002426868031593211</v>
+        <v>0.0007752772683322084</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2635523791351062</v>
+        <v>0.1629988825988917</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5644518004147301</v>
+        <v>1.267573159248428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.754017367483328</v>
+        <v>1.848798352084032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.303647392708285</v>
+        <v>3.764224754395286</v>
       </c>
       <c r="C16">
-        <v>0.272631096390711</v>
+        <v>0.8644066482176811</v>
       </c>
       <c r="D16">
-        <v>0.2770657608175924</v>
+        <v>0.2344983078742757</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.268747485966372</v>
+        <v>0.8621637309915684</v>
       </c>
       <c r="G16">
-        <v>0.002428775773135934</v>
+        <v>0.0007785395296068347</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2636833657586379</v>
+        <v>0.1572253100496823</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5415034041367477</v>
+        <v>1.186130621529571</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.759941135843206</v>
+        <v>1.780091677929562</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.256073234429437</v>
+        <v>3.60666236798312</v>
       </c>
       <c r="C17">
-        <v>0.261738261370823</v>
+        <v>0.8301393475519205</v>
       </c>
       <c r="D17">
-        <v>0.2754052415799606</v>
+        <v>0.2267651854110397</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.268996532972068</v>
+        <v>0.8408923289634487</v>
       </c>
       <c r="G17">
-        <v>0.002429972114885802</v>
+        <v>0.0007805593459935897</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2638061844237001</v>
+        <v>0.1538115279029668</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5274481598037681</v>
+        <v>1.136401514547799</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.764194617111059</v>
+        <v>1.740131169724862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.228703421188015</v>
+        <v>3.516213937834152</v>
       </c>
       <c r="C18">
-        <v>0.2554667626954199</v>
+        <v>0.8104578981287318</v>
       </c>
       <c r="D18">
-        <v>0.2744586460452751</v>
+        <v>0.2223400938640481</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.269231232887449</v>
+        <v>0.8289496324258039</v>
       </c>
       <c r="G18">
-        <v>0.0024306697977826</v>
+        <v>0.0007817281433390493</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2638924172143007</v>
+        <v>0.1518930032541874</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5193724739441734</v>
+        <v>1.107877734589067</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.766868328740912</v>
+        <v>1.717914437749812</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.219435412980715</v>
+        <v>3.485618443692829</v>
       </c>
       <c r="C19">
-        <v>0.2533422825132732</v>
+        <v>0.8037986252752773</v>
       </c>
       <c r="D19">
-        <v>0.2741396058496974</v>
+        <v>0.2208456352613126</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.269326394465523</v>
+        <v>0.8249549190818186</v>
       </c>
       <c r="G19">
-        <v>0.002430907668676546</v>
+        <v>0.0007821251118563538</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2639242905418868</v>
+        <v>0.1512509590115982</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5166396600660619</v>
+        <v>1.098233046660354</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.76781258716349</v>
+        <v>1.710520658866216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.261138258810377</v>
+        <v>3.623416406727983</v>
       </c>
       <c r="C20">
-        <v>0.2628984694943881</v>
+        <v>0.8337841665579901</v>
       </c>
       <c r="D20">
-        <v>0.2755811284527283</v>
+        <v>0.2275860029213419</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.268960553610242</v>
+        <v>0.8431261727493649</v>
       </c>
       <c r="G20">
-        <v>0.002429843771367587</v>
+        <v>0.0007803436086043803</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2637914962652061</v>
+        <v>0.1541702282086774</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5289434856022552</v>
+        <v>1.141686931587429</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.763718300667989</v>
+        <v>1.744304788098788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.401174350675717</v>
+        <v>4.088644280786809</v>
       </c>
       <c r="C21">
-        <v>0.2949307136918833</v>
+        <v>0.9348925720293835</v>
       </c>
       <c r="D21">
-        <v>0.280525720370278</v>
+        <v>0.2505138005662673</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.268824891056255</v>
+        <v>0.9077666817941576</v>
       </c>
       <c r="G21">
-        <v>0.002426383511507818</v>
+        <v>0.000774440538190134</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2635317002469009</v>
+        <v>0.1645308754310477</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5703835929322736</v>
+        <v>1.288677726892232</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.752679816399336</v>
+        <v>1.867244831540916</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.492629532723072</v>
+        <v>4.394672288725531</v>
       </c>
       <c r="C22">
-        <v>0.3158076936605028</v>
+        <v>1.001299193971875</v>
       </c>
       <c r="D22">
-        <v>0.2838323722778142</v>
+        <v>0.265728509838226</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.269553127110854</v>
+        <v>0.9529185640888471</v>
       </c>
       <c r="G22">
-        <v>0.002424206854580926</v>
+        <v>0.0007706399978229171</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2635010426296844</v>
+        <v>0.1717485815632003</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5975404114990113</v>
+        <v>1.385594319663426</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.74749784535652</v>
+        <v>1.955235360309246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.4438247159257</v>
+        <v>4.231138490651347</v>
       </c>
       <c r="C23">
-        <v>0.3046706776428323</v>
+        <v>0.9658230082298758</v>
       </c>
       <c r="D23">
-        <v>0.2820607064616212</v>
+        <v>0.2575857045103334</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.269089586328761</v>
+        <v>0.9285387704489096</v>
       </c>
       <c r="G23">
-        <v>0.002425360839019793</v>
+        <v>0.0007726634314904155</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.263504659833167</v>
+        <v>0.1678531764557576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5830397207279958</v>
+        <v>1.333782957327699</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.750077171821687</v>
+        <v>1.907532765862214</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.258848419734704</v>
+        <v>3.615841485569433</v>
       </c>
       <c r="C24">
-        <v>0.2623739676064929</v>
+        <v>0.8321362846465661</v>
       </c>
       <c r="D24">
-        <v>0.2755015848895965</v>
+        <v>0.2272148468802868</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.268976534825796</v>
+        <v>0.8421153628223124</v>
       </c>
       <c r="G24">
-        <v>0.002429901764605095</v>
+        <v>0.0007804411198232987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2637980881218382</v>
+        <v>0.1540079229183036</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5282674336401669</v>
+        <v>1.139297190075723</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.763932932187885</v>
+        <v>1.742415545735781</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.059081227919478</v>
+        <v>2.958730061201322</v>
       </c>
       <c r="C25">
-        <v>0.2165133599256706</v>
+        <v>0.6889752423894322</v>
       </c>
       <c r="D25">
-        <v>0.2687514385570751</v>
+        <v>0.1953132176279126</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.272349520224026</v>
+        <v>0.7599110688782531</v>
       </c>
       <c r="G25">
-        <v>0.002435166405118721</v>
+        <v>0.0007891028976081154</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.264710475666476</v>
+        <v>0.1407715052924701</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4695136739142214</v>
+        <v>0.9324658776179504</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.787560308893461</v>
+        <v>1.593260681913847</v>
       </c>
     </row>
   </sheetData>
